--- a/data/Data Usaha Mikro Kecil dan Menengah (UMKM) Kosmetik 2025-03-16.xlsx
+++ b/data/Data Usaha Mikro Kecil dan Menengah (UMKM) Kosmetik 2025-03-16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\dll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C2EAAB-CC3E-4DA9-8839-FCEC7E5DF1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182A870-76A0-48E6-BAC0-EB022CC0358C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$601</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -4370,13 +4362,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16038,8 +16039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E07ACD-BB57-420B-9DD8-3A19373735D7}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16051,1314 +16052,1484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>1140</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>1142</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="D57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="D58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="D61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="D62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="D63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="D67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="D68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="D69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="D72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="D73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="D75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="D76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="D78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="D79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="D80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="D81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="D82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="D83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="D84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="D85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="D86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="D87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="D88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="D90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D91" t="s">
-        <v>13</v>
-      </c>
+      <c r="D91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
